--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/SVM_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/SVM_predicted_probs_1_features.xlsx
@@ -387,702 +387,702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.3133300793389357</v>
+        <v>0.291330909431804</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.3133501855523708</v>
+        <v>0.2840745542483112</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.3134268272510813</v>
+        <v>0.5256072772858191</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.313293483041312</v>
+        <v>0.4213513434988126</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.3132547892183878</v>
+        <v>0.4818213410385721</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.313272437020897</v>
+        <v>0.4779933992264918</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.3132826996383768</v>
+        <v>0.4598824852430004</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.3133277670169269</v>
+        <v>0.2942285021190283</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.313247602963805</v>
+        <v>0.4811949746706216</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.3133153296054337</v>
+        <v>0.3276419057757925</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.3132706074518231</v>
+        <v>0.4795225582283456</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.3133092485464051</v>
+        <v>0.3500092086380071</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.3132744946424917</v>
+        <v>0.4757335055536384</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.3133221881702907</v>
+        <v>0.3044051319054599</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.3133238319239556</v>
+        <v>0.3009006145950652</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.3132663353695022</v>
+        <v>0.4816412466555984</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.3133390544947217</v>
+        <v>0.285392969536767</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.313271741186637</v>
+        <v>0.4786252313124405</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.3132967346520018</v>
+        <v>0.4067693845325886</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.3132540071501694</v>
+        <v>0.4817346216932318</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.3133386453574422</v>
+        <v>0.2855288102921238</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.313322192003936</v>
+        <v>0.3043964410893372</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.3133744474939467</v>
+        <v>0.3053347367923618</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.3134038542938927</v>
+        <v>0.4510478354239399</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.3133061762665632</v>
+        <v>0.3631116811874913</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.3133303474922897</v>
+        <v>0.2910388469975096</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.3132985870795623</v>
+        <v>0.3981682325829928</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.3133081630547308</v>
+        <v>0.3545228656205259</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.4332485482265008</v>
+        <v>0.3406136537794711</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.4332944693201137</v>
+        <v>0.3370027143249056</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.4333096764688869</v>
+        <v>0.3379162257481544</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.4332269150088026</v>
+        <v>0.3516171938435655</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.4331887577280051</v>
+        <v>0.3852799278463346</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.433047079087038</v>
+        <v>0.42134674313499</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.4332059211504724</v>
+        <v>0.3689414226179958</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.4333534899412942</v>
+        <v>0.3457214892945546</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.4332035034435551</v>
+        <v>0.3712064728278248</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.4331607959821256</v>
+        <v>0.4078006936160442</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.43326780833875</v>
+        <v>0.3368727223524441</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.4331783283492598</v>
+        <v>0.3947285268188273</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.4330859307797224</v>
+        <v>0.42138399085218</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.4332329280110168</v>
+        <v>0.3477748256413651</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.4332922392060326</v>
+        <v>0.3368909925427592</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.4329939687821945</v>
+        <v>0.4216046239381358</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.4333888202254259</v>
+        <v>0.3664666061967462</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.4331938253788504</v>
+        <v>0.3804575443693167</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.4333612732040684</v>
+        <v>0.3490483861432257</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.4330456533101251</v>
+        <v>0.4213489441795695</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.4332982648986994</v>
+        <v>0.3372085688940467</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.4330953892388848</v>
+        <v>0.4214359312549295</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.4331887577280051</v>
+        <v>0.3852799278463346</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.4331369334917763</v>
+        <v>0.4180247056221267</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.4331859358199719</v>
+        <v>0.3879166776782769</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.4331849168446538</v>
+        <v>0.3888566507774828</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.4332788058704892</v>
+        <v>0.336493739927835</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.4332132609890654</v>
+        <v>0.3623217435265515</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.8089225049387569</v>
+        <v>0.3011252181712884</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.8087881221779745</v>
+        <v>0.4086446319603503</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.8087699313991522</v>
+        <v>0.4688771048768473</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.8088583807645885</v>
+        <v>0.2946644079277012</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.8088534820623632</v>
+        <v>0.2932932954965967</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.8088417480555294</v>
+        <v>0.2882791245199463</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.8088016261130035</v>
+        <v>0.3516775379439824</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.8088077106205336</v>
+        <v>0.3301166412677716</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.8086839853542788</v>
+        <v>0.4897027678195024</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.808845214697435</v>
+        <v>0.2897883843805961</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.808785827182313</v>
+        <v>0.4182246208062073</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.8087574807593368</v>
+        <v>0.484120119976415</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.8088102033048511</v>
+        <v>0.3185795969973269</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.8088305054628286</v>
+        <v>0.2867695703550639</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.8087973435075602</v>
+        <v>0.3690086124065163</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.8087787077867358</v>
+        <v>0.4449841462623998</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.808882782762722</v>
+        <v>0.2931960219173829</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.8088737391928302</v>
+        <v>0.2945481610466125</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.8088256945671439</v>
+        <v>0.2893057487958421</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.8088144622537365</v>
+        <v>0.3069987530839606</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.8088630270638852</v>
+        <v>0.2952708984913882</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.8087825630388414</v>
+        <v>0.4311569281665705</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.8087852598218496</v>
+        <v>0.4205383832902441</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.8088560972572507</v>
+        <v>0.2941149707795119</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.808829122492188</v>
+        <v>0.2872415537215101</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.8088016261130035</v>
+        <v>0.3516775379439824</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.8088390541457514</v>
+        <v>0.287296943388515</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.8088629067159051</v>
+        <v>0.2952636648780434</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.3316838422160889</v>
+        <v>0.3433303129939678</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.3316383231910268</v>
+        <v>0.3614774230133788</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.3316447663152324</v>
+        <v>0.356116259524576</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.3316886822358363</v>
+        <v>0.3433517617501642</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.331640272236612</v>
+        <v>0.3597852880603079</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.3317073969059022</v>
+        <v>0.3431964419599072</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.3316245126955183</v>
+        <v>0.3741657945030545</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.3316879279708693</v>
+        <v>0.3433451360317512</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.3316269411345136</v>
+        <v>0.3719410907295752</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.3316984203154593</v>
+        <v>0.3433853742659193</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.3315570667957728</v>
+        <v>0.3945959348869325</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.3316608803375761</v>
+        <v>0.3467337209125072</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.3315800298493599</v>
+        <v>0.3949171280939954</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.3315508247335359</v>
+        <v>0.3945378828239083</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.3315831231628856</v>
+        <v>0.3947470174209525</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.3315229732135913</v>
+        <v>0.3949496973661044</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.3316435087268842</v>
+        <v>0.3571059958498232</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.3315656386783225</v>
+        <v>0.3948103152604443</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.3316182143076074</v>
+        <v>0.3796437289601288</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.3316477282075586</v>
+        <v>0.353915124135617</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.3316124585025459</v>
+        <v>0.3840690581974437</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.3315994140453339</v>
+        <v>0.3912505357516742</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.3316890032564435</v>
+        <v>0.343354714620429</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.3315721015258695</v>
+        <v>0.3949697416400684</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.3314806287188876</v>
+        <v>0.3888754683702018</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.3316908827291791</v>
+        <v>0.343372185779554</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.3316422635469164</v>
+        <v>0.3581154691976615</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.3316161501068147</v>
+        <v>0.3813062470754678</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.755946918577769</v>
+        <v>0.3666232455242703</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.7559469357180849</v>
+        <v>0.3666252486391355</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.7558613135553213</v>
+        <v>0.3628240994398697</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.756040543888395</v>
+        <v>0.3718960349556297</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.7560374367115116</v>
+        <v>0.3719010285426362</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.7559355682810399</v>
+        <v>0.3654040787193667</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.7560201540067762</v>
+        <v>0.3719717739562205</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.7560339364670291</v>
+        <v>0.3719120176674938</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.7559230726229651</v>
+        <v>0.3643665140556457</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.7558578914656856</v>
+        <v>0.3628327824070644</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.755982511632338</v>
+        <v>0.3707015414549104</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.7559784660186937</v>
+        <v>0.3703334108716596</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.7559455639175731</v>
+        <v>0.3664662300103158</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.7559663748766976</v>
+        <v>0.3690079843184755</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.7559418948599257</v>
+        <v>0.3660552080573401</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.7559913321786788</v>
+        <v>0.3713376673962384</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.7559220407554338</v>
+        <v>0.3642959559118784</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.7559802837395586</v>
+        <v>0.370504370102203</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.7559358766951335</v>
+        <v>0.3654339598912985</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.7559391779026369</v>
+        <v>0.3657660042623091</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.7559580349001932</v>
+        <v>0.3679805379449584</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.7558294702411211</v>
+        <v>0.3628961114300838</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.7561034869063764</v>
+        <v>0.3715670953736346</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.7559141468013805</v>
+        <v>0.363827498742111</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.7559637034852974</v>
+        <v>0.3686838785481723</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.7559065010576482</v>
+        <v>0.3634820794768454</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.7558953761075591</v>
+        <v>0.3631335561659673</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.7560164692831388</v>
+        <v>0.3719750192349738</v>
       </c>
     </row>
   </sheetData>

--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/SVM_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/SVM_predicted_probs_1_features.xlsx
@@ -387,702 +387,702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.291330909431804</v>
+        <v>0.3461770293605116</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.2840745542483112</v>
+        <v>0.3428322026567472</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.5256072772858191</v>
+        <v>0.4481267779201661</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.4213513434988126</v>
+        <v>0.4031063611606952</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.4818213410385721</v>
+        <v>0.4291381182735212</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.4779933992264918</v>
+        <v>0.4274901260434474</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.4598824852430004</v>
+        <v>0.4197052215774412</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.2942285021190283</v>
+        <v>0.3475050861975664</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.4811949746706216</v>
+        <v>0.4288683674521632</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.3276419057757925</v>
+        <v>0.3609090979761659</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.4795225582283456</v>
+        <v>0.4281483005933621</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.3500092086380071</v>
+        <v>0.3713539587599615</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.4757335055536384</v>
+        <v>0.426517772964305</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.3044051319054599</v>
+        <v>0.352137556898822</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.3009006145950652</v>
+        <v>0.3505476625727421</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.4816412466555984</v>
+        <v>0.4290605550841026</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.285392969536767</v>
+        <v>0.3434420160069185</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.4786252313124405</v>
+        <v>0.4277620530489584</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.4067693845325886</v>
+        <v>0.3967631820686859</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.4817346216932318</v>
+        <v>0.4291007695350608</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.2855288102921238</v>
+        <v>0.3435047932878496</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.3043964410893372</v>
+        <v>0.3521336208632651</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.3053347367923618</v>
+        <v>0.3525583813828847</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.4510478354239399</v>
+        <v>0.4159095998392136</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.3631116811874913</v>
+        <v>0.3773473604364691</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.2910388469975096</v>
+        <v>0.3460429339471349</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.3981682325829928</v>
+        <v>0.3929944758260357</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.3545228656205259</v>
+        <v>0.3734286144172739</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.3406136537794711</v>
+        <v>0.3419710703409128</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.3370027143249056</v>
+        <v>0.3381372947385138</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.3379162257481544</v>
+        <v>0.3391070250442039</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.3516171938435655</v>
+        <v>0.3536634553689683</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.3852799278463346</v>
+        <v>0.3895080440989633</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.42134674313499</v>
+        <v>0.4279650378465344</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.3689414226179958</v>
+        <v>0.3720988761353727</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.3457214892945546</v>
+        <v>0.3473968747058262</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.3712064728278248</v>
+        <v>0.3745112526413016</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.4078006936160442</v>
+        <v>0.4135219933649646</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.3368727223524441</v>
+        <v>0.3379993114663462</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.3947285268188273</v>
+        <v>0.399581986096088</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.42138399085218</v>
+        <v>0.4280047431625947</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.3477748256413651</v>
+        <v>0.3495789193392767</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.3368909925427592</v>
+        <v>0.3380187046929755</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.4216046239381358</v>
+        <v>0.4282399322737657</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.3664666061967462</v>
+        <v>0.3694635751739705</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.3804575443693167</v>
+        <v>0.3843679236898057</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.3490483861432257</v>
+        <v>0.3509325586091884</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.4213489441795695</v>
+        <v>0.4279673841174825</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.3372085688940467</v>
+        <v>0.338355808676481</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.4214359312549295</v>
+        <v>0.4280601104788226</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.3852799278463346</v>
+        <v>0.3895080440989633</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.4180247056221267</v>
+        <v>0.4244235708865245</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.3879166776782769</v>
+        <v>0.3923189873780555</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.3888566507774828</v>
+        <v>0.3933211261246348</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.336493739927835</v>
+        <v>0.3375970432370801</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.3623217435265515</v>
+        <v>0.3650511470397161</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.3011252181712884</v>
+        <v>0.2717968217216311</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.4086446319603503</v>
+        <v>0.4098098204952227</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.4688771048768473</v>
+        <v>0.489514849156316</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.2946644079277012</v>
+        <v>0.2638285991294874</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.2932932954965967</v>
+        <v>0.2621441984496605</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.2882791245199463</v>
+        <v>0.2560046338338523</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.3516775379439824</v>
+        <v>0.3358844765132327</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.3301166412677716</v>
+        <v>0.3036432786135077</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.4897027678195024</v>
+        <v>0.5169642325286302</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.2897883843805961</v>
+        <v>0.2578492446550369</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.4182246208062073</v>
+        <v>0.4224509057556886</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.484120119976415</v>
+        <v>0.5096191975301928</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.3185795969973269</v>
+        <v>0.2935657941366094</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.2867695703550639</v>
+        <v>0.2541626270039685</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.3690086124065163</v>
+        <v>0.3581008801909793</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.4449841462623998</v>
+        <v>0.4578873709972185</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.2931960219173829</v>
+        <v>0.2620247882210749</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.2945481610466125</v>
+        <v>0.2636856995499252</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.2893057487958421</v>
+        <v>0.2572590490923266</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.3069987530839606</v>
+        <v>0.279083968424802</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.2952708984913882</v>
+        <v>0.2645744166913077</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.4311569281665705</v>
+        <v>0.4395634366059901</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.4205383832902441</v>
+        <v>0.4255092559531332</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.2941149707795119</v>
+        <v>0.263153337407281</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.2872415537215101</v>
+        <v>0.2547382361195845</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.3516775379439824</v>
+        <v>0.3358844765132327</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.287296943388515</v>
+        <v>0.2548058059431155</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.2952636648780434</v>
+        <v>0.2645655186307987</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.3433303129939678</v>
+        <v>0.2984345010541504</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.3614774230133788</v>
+        <v>0.3595433499302879</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.356116259524576</v>
+        <v>0.3425866586677517</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.3433517617501642</v>
+        <v>0.2985022545585115</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.3597852880603079</v>
+        <v>0.3541492076250664</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.3431964419599072</v>
+        <v>0.2980117556028271</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.3741657945030545</v>
+        <v>0.4011293211821477</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.3433451360317512</v>
+        <v>0.2984813242459056</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.3719410907295752</v>
+        <v>0.3937060238687486</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.3433853742659193</v>
+        <v>0.2986084434963542</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.3945959348869325</v>
+        <v>0.4707522154822001</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.3467337209125072</v>
+        <v>0.3092575520468425</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.3949171280939954</v>
+        <v>0.4718539638664513</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.3945378828239083</v>
+        <v>0.4705530713968675</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.3947470174209525</v>
+        <v>0.4712704732117989</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.3949496973661044</v>
+        <v>0.4719656736673342</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.3571059958498232</v>
+        <v>0.3456875673527581</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.3948103152604443</v>
+        <v>0.4714875938755612</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.3796437289601288</v>
+        <v>0.4195956067652757</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.353915124135617</v>
+        <v>0.3357386149262899</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.3840690581974437</v>
+        <v>0.4346636729483607</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.3912505357516742</v>
+        <v>0.4592715331531463</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.343354714620429</v>
+        <v>0.2985115827094234</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.3949697416400684</v>
+        <v>0.4720344229987036</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.3888754683702018</v>
+        <v>0.4511217223758816</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.343372185779554</v>
+        <v>0.298566776591942</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.3581154691976615</v>
+        <v>0.34886414875795</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.3813062470754678</v>
+        <v>0.4252436071153494</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.3666232455242703</v>
+        <v>0.3470128397977782</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.3666252486391355</v>
+        <v>0.3470334561696047</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.3628240994398697</v>
+        <v>0.304371237624955</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.3718960349556297</v>
+        <v>0.4038444400213568</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.3719010285426362</v>
+        <v>0.4039004911926822</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.3654040787193667</v>
+        <v>0.3346077423283197</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.3719717739562205</v>
+        <v>0.4046949724595332</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.3719120176674938</v>
+        <v>0.4040238528815862</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.3643665140556457</v>
+        <v>0.3203610464076546</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.3628327824070644</v>
+        <v>0.3044601151698275</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.3707015414549104</v>
+        <v>0.3905460180442874</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.3703334108716596</v>
+        <v>0.3864937695846182</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.3664662300103158</v>
+        <v>0.34539920891862</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.3690079843184755</v>
+        <v>0.3720981183546258</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.3660552080573401</v>
+        <v>0.3411975928954626</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.3713376673962384</v>
+        <v>0.3976004373231756</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.3642959559118784</v>
+        <v>0.319620924977425</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.370504370102203</v>
+        <v>0.3883728098718965</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.3654339598912985</v>
+        <v>0.3349083872165218</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.3657660042623091</v>
+        <v>0.3382606593619636</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.3679805379449584</v>
+        <v>0.361158444586577</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.3628961114300838</v>
+        <v>0.3051087392542913</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.3715670953736346</v>
+        <v>0.4001603390454883</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.363827498742111</v>
+        <v>0.3147277582270062</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.3686838785481723</v>
+        <v>0.3686260286509301</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.3634820794768454</v>
+        <v>0.3111431690035091</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.3631335561659673</v>
+        <v>0.3075468802579156</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.3719750192349738</v>
+        <v>0.4047314348381332</v>
       </c>
     </row>
   </sheetData>

--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/SVM_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/SVM_predicted_probs_1_features.xlsx
@@ -387,702 +387,702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.3461770293605116</v>
+        <v>0.4845297276129338</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.3428322026567472</v>
+        <v>0.4846601620821121</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.4481267779201661</v>
+        <v>0.4850732624797029</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.4031063611606952</v>
+        <v>0.4842926814416202</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.4291381182735212</v>
+        <v>0.4840423026016959</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.4274901260434474</v>
+        <v>0.4841564848040073</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.4197052215774412</v>
+        <v>0.4842228914139162</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.3475050861975664</v>
+        <v>0.4845147377079905</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.4288683674521632</v>
+        <v>0.4839958057194768</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.3609090979761659</v>
+        <v>0.4844341427434096</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.4281483005933621</v>
+        <v>0.4841446470169462</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.3713539587599615</v>
+        <v>0.4843947547052613</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.426517772964305</v>
+        <v>0.4841697983998877</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.352137556898822</v>
+        <v>0.4844785801380417</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.3505476625727421</v>
+        <v>0.4844892324856793</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.4290605550841026</v>
+        <v>0.4841170061536226</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.3434420160069185</v>
+        <v>0.4845879300901594</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.4277620530489584</v>
+        <v>0.4841519825529895</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.3967631820686859</v>
+        <v>0.4843137295620568</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.4291007695350608</v>
+        <v>0.4840372425484241</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.3435047932878496</v>
+        <v>0.4845852761728556</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.3521336208632651</v>
+        <v>0.4844786049809156</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0.3525583813828847</v>
+        <v>0.4848178273879406</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0.4159095998392136</v>
+        <v>0.485009439425714</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.3773473604364691</v>
+        <v>0.4843748588378454</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.3460429339471349</v>
+        <v>0.4845314660798448</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.3929944758260357</v>
+        <v>0.4843257214922553</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.3734286144172739</v>
+        <v>0.4843877248603637</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.3419710703409128</v>
+        <v>0.4846417417730314</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.3381372947385138</v>
+        <v>0.4847454518446517</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.3391070250442039</v>
+        <v>0.4847799249105825</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.3536634553689683</v>
+        <v>0.4845930258295416</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.3895080440989633</v>
+        <v>0.4845072020259686</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.4279650378465344</v>
+        <v>0.484187203621307</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.3720988761353727</v>
+        <v>0.4845457973787426</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.3473968747058262</v>
+        <v>0.4848797457899052</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.3745112526413016</v>
+        <v>0.4845403602146415</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.4135219933649646</v>
+        <v>0.4844443153687619</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.3379993114663462</v>
+        <v>0.4846851794798273</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.399581986096088</v>
+        <v>0.4844837498374077</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.4280047431625947</v>
+        <v>0.4842754401765677</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.3495789193392767</v>
+        <v>0.4846065602991076</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.3380187046929755</v>
+        <v>0.4847404026532212</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.4282399322737657</v>
+        <v>0.484108457711994</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.3694635751739705</v>
+        <v>0.4849609274856418</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.3843679236898057</v>
+        <v>0.4845185971156922</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.3509325586091884</v>
+        <v>0.4848975709559824</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.4279673841174825</v>
+        <v>0.4841839543460232</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.338355808676481</v>
+        <v>0.4847540489379308</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.4280601104788226</v>
+        <v>0.4842968444289013</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.3895080440989633</v>
+        <v>0.4845072020259686</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.4244235708865245</v>
+        <v>0.4843905981305271</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.3923189873780555</v>
+        <v>0.484500856678185</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.3933211261246348</v>
+        <v>0.4844985653877612</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.3375970432370801</v>
+        <v>0.4847100187603379</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.3650511470397161</v>
+        <v>0.484562305679677</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.2717968217216311</v>
+        <v>0.4848550127648143</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.4098098204952227</v>
+        <v>0.4838963839866692</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.489514849156316</v>
+        <v>0.4837676356757544</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.2638285991294874</v>
+        <v>0.48439519804455</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.2621441984496605</v>
+        <v>0.4843602912528154</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.2560046338338523</v>
+        <v>0.4842767747858051</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.3358844765132327</v>
+        <v>0.4839920239968804</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.3036432786135077</v>
+        <v>0.4840351423980655</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>0.5169642325286302</v>
+        <v>0.4831845787006971</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.2578492446550369</v>
+        <v>0.4843014349978526</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.4224509057556886</v>
+        <v>0.4838801363503798</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.5096191975301928</v>
+        <v>0.4836795415207038</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.2935657941366094</v>
+        <v>0.484052812449733</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.2541626270039685</v>
+        <v>0.4841968707776963</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.3581008801909793</v>
+        <v>0.483961685190513</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.4578873709972185</v>
+        <v>0.4838297430640585</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.2620247882210749</v>
+        <v>0.4845694899235281</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.2636856995499252</v>
+        <v>0.4845048109638411</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.2572590490923266</v>
+        <v>0.4841627089159391</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.279083968424802</v>
+        <v>0.4840830110817618</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.2645744166913077</v>
+        <v>0.4844283300462014</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.4395634366059901</v>
+        <v>0.4838570301381639</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.4255092559531332</v>
+        <v>0.4838761199089803</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.263153337407281</v>
+        <v>0.4843789232834141</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.2547382361195845</v>
+        <v>0.4841870486332299</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.3358844765132327</v>
+        <v>0.4839920239968804</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.2548058059431155</v>
+        <v>0.4842576188453893</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.2645655186307987</v>
+        <v>0.4844274715628601</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.2984345010541504</v>
+        <v>0.3802752398263184</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.3595433499302879</v>
+        <v>0.3800815250580253</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.3425866586677517</v>
+        <v>0.380108972055324</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.2985022545585115</v>
+        <v>0.3802958159186755</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.3541492076250664</v>
+        <v>0.3800898288862459</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.2980117556028271</v>
+        <v>0.3803753508916193</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.4011293211821477</v>
+        <v>0.3800226565004043</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.2984813242459056</v>
+        <v>0.38029260956149</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.3937060238687486</v>
+        <v>0.3800330118648853</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.2986084434963542</v>
+        <v>0.3803372060413955</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.4707522154822001</v>
+        <v>0.3797342141843523</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.3092575520468425</v>
+        <v>0.3801775732689797</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.4718539638664513</v>
+        <v>0.3798326227761942</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.4705530713968675</v>
+        <v>0.3797074210973279</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.4712704732117989</v>
+        <v>0.3798458616158972</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.4719656736673342</v>
+        <v>0.3795876246549976</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.3456875673527581</v>
+        <v>0.380103615684518</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.4714875938755612</v>
+        <v>0.3797709771145736</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.4195956067652757</v>
+        <v>0.379995790607648</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.3357386149262899</v>
+        <v>0.38012158595282</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.4346636729483607</v>
+        <v>0.3799712282269617</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.4592715331531463</v>
+        <v>0.3799155209416881</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.2985115827094234</v>
+        <v>0.3802971805451936</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.4720344229987036</v>
+        <v>0.3797986724616784</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.4511217223758816</v>
+        <v>0.3794045991876393</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.298566776591942</v>
+        <v>0.3803051697351494</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.34886414875795</v>
+        <v>0.3800983117791439</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.4252436071153494</v>
+        <v>0.3799869830403555</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.3470128397977782</v>
+        <v>0.3798016452124029</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.3470334561696047</v>
+        <v>0.3798017081336145</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.304371237624955</v>
+        <v>0.3794871513662138</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.4038444400213568</v>
+        <v>0.3801452188644628</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.4039004911926822</v>
+        <v>0.3801338176902491</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.3346077423283197</v>
+        <v>0.3797599756410181</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.4046949724595332</v>
+        <v>0.3800704035555369</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.4040238528815862</v>
+        <v>0.3801209743546761</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.3203610464076546</v>
+        <v>0.3797140929788307</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.3044601151698275</v>
+        <v>0.3794745663038377</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.3905460180442874</v>
+        <v>0.3799322802694188</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.3864937695846182</v>
+        <v>0.3799174340049213</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.34539920891862</v>
+        <v>0.3797966722805555</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.3720981183546258</v>
+        <v>0.3798730600960104</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.3411975928954626</v>
+        <v>0.379783202789556</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.3976004373231756</v>
+        <v>0.3799646478581294</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.319620924977425</v>
+        <v>0.3797103036544359</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.3883728098718965</v>
+        <v>0.3799241045818356</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.3349083872165218</v>
+        <v>0.3797611079897152</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.3382606593619636</v>
+        <v>0.3797732281195367</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.361158444586577</v>
+        <v>0.3798424498767621</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.3051087392542913</v>
+        <v>0.3793730051447138</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.4001603390454883</v>
+        <v>0.3802797892774643</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.3147277582270062</v>
+        <v>0.37968131241367</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.3686260286509301</v>
+        <v>0.3798632555693349</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.3111431690035091</v>
+        <v>0.3796532286632124</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.3075468802579156</v>
+        <v>0.3796123575736141</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.4047314348381332</v>
+        <v>0.3800568835711652</v>
       </c>
     </row>
   </sheetData>
